--- a/patient_data/patient_38.xlsx
+++ b/patient_data/patient_38.xlsx
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -874,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -951,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1013,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1028,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -1925,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2079,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
